--- a/Guru99KeywordFramework/TestCase.xlsx
+++ b/Guru99KeywordFramework/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="50">
   <si>
     <t>Keyword</t>
   </si>
@@ -569,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,43 +959,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -1003,83 +997,83 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -1087,67 +1081,67 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -1155,63 +1149,65 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1219,63 +1215,63 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
@@ -1283,67 +1279,65 @@
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
@@ -1351,67 +1345,67 @@
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
@@ -1419,33 +1413,41 @@
         <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
@@ -1454,16 +1456,16 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
@@ -1473,11 +1475,19 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
+    <row r="68" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1"/>
     <hyperlink ref="E24" r:id="rId2"/>
-    <hyperlink ref="E30" r:id="rId3"/>
+    <hyperlink ref="E31" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
